--- a/data/raw/INFANL4-2020-2021 EXAM first chance.xlsx
+++ b/data/raw/INFANL4-2020-2021 EXAM first chance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejdobrkovic/extra/courses/2223datascience/(X3) black (dropout prediction)/(03) more ANL sources/anonymized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaQiang\Desktop\Project DS Analysis\DsAnalysisProject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE50368-CB51-8C42-A7E7-DE278DFFCE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E393A-319E-4E91-A107-6707350D4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15820" activeTab="1" xr2:uid="{CCC7DE59-B6CB-5D4F-8F3D-6473542DF383}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CCC7DE59-B6CB-5D4F-8F3D-6473542DF383}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10262" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10262" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Expected:</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1231,18 +1234,18 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="2.6640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1267,7 +1270,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>28</v>
@@ -1296,11 +1299,11 @@
       </c>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="12" t="s">
         <v>18</v>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="15" t="s">
         <v>31</v>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="15" t="s">
         <v>32</v>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="18" t="s">
         <v>33</v>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -1699,7 +1702,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
         <v>31</v>
@@ -1786,7 +1789,7 @@
       </c>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
         <v>32</v>
@@ -1873,7 +1876,7 @@
       </c>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="18" t="s">
         <v>33</v>
@@ -1960,15 +1963,15 @@
       </c>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="J16" s="6" t="s">
         <v>34</v>
@@ -1990,7 +1993,7 @@
       </c>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2015,7 +2018,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2025,18 +2028,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B80C74-02D0-1441-93F8-C0DF5951B4D3}">
   <dimension ref="A1:AT244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="4.1640625" customWidth="1"/>
+    <col min="4" max="43" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2174,7 +2175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2470463</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460178</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2449284</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <v>#N/A</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2473919</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2463987</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2575386</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2448095</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2474652</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2468230</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2472539</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2469215</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2461897</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <v>#N/A</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2441251</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2391565</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2423048</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <v>#N/A</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <v>#N/A</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <v>#N/A</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2463439</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2460367</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <v>#N/A</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2471988</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2470025</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <v>#N/A</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2470432</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2457955</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2402647</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2368055</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2460514</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <v>#N/A</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>2474960</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2475836</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2463394</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <v>#N/A</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2469868</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2459364</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2448788</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2569490</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2459206</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2484562</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2397400</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2395330</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2460275</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <v>#N/A</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <v>#N/A</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <v>#N/A</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2471245</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <v>#N/A</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2466477</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2462671</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2466786</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="e">
         <v>#N/A</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2459737</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2472296</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2470035</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <v>#N/A</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2449280</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2463984</v>
       </c>
@@ -11079,7 +11080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2470058</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2471383</v>
       </c>
@@ -11353,7 +11354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2487380</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2459587</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2460095</v>
       </c>
@@ -11764,7 +11765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2472842</v>
       </c>
@@ -11901,7 +11902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2459147</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2404288</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2489791</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2472834</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <v>#N/A</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2445750</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2482941</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2473029</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2475992</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2469670</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2471982</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <v>#N/A</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <v>#N/A</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2369630</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2471344</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <v>#N/A</v>
       </c>
@@ -14230,7 +14231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2467283</v>
       </c>
@@ -14367,7 +14368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2464574</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2460930</v>
       </c>
@@ -14641,7 +14642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2470406</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2381943</v>
       </c>
@@ -14915,7 +14916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2471509</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2373597</v>
       </c>
@@ -15189,7 +15190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <v>#N/A</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2488077</v>
       </c>
@@ -15463,7 +15464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2446057</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <v>#N/A</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <v>#N/A</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <v>#N/A</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2461833</v>
       </c>
@@ -16148,7 +16149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2472752</v>
       </c>
@@ -16285,7 +16286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2389893</v>
       </c>
@@ -16422,7 +16423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2457637</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <v>#N/A</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <v>#N/A</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2477562</v>
       </c>
@@ -16970,7 +16971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2461221</v>
       </c>
@@ -17107,7 +17108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2369348</v>
       </c>
@@ -17244,7 +17245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <v>#N/A</v>
       </c>
@@ -17381,7 +17382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -17518,7 +17519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2448525</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2459209</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <v>#N/A</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -18066,7 +18067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2470786</v>
       </c>
@@ -18203,7 +18204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2471125</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2446469</v>
       </c>
@@ -18477,7 +18478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2471349</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <v>#N/A</v>
       </c>
@@ -18751,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -18888,7 +18889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2446965</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2483846</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2461838</v>
       </c>
@@ -19299,7 +19300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2370610</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2369028</v>
       </c>
@@ -19573,7 +19574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2449040</v>
       </c>
@@ -19710,7 +19711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2468953</v>
       </c>
@@ -19847,7 +19848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <v>#N/A</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <v>#N/A</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <v>#N/A</v>
       </c>
@@ -20395,7 +20396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <v>#N/A</v>
       </c>
@@ -20532,7 +20533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2470724</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2375249</v>
       </c>
@@ -20806,7 +20807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2482072</v>
       </c>
@@ -20943,7 +20944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2468534</v>
       </c>
@@ -21080,7 +21081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <v>#N/A</v>
       </c>
@@ -21217,7 +21218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2483548</v>
       </c>
@@ -21354,7 +21355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2422069</v>
       </c>
@@ -21491,7 +21492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2470423</v>
       </c>
@@ -21628,7 +21629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2473590</v>
       </c>
@@ -21765,7 +21766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2369932</v>
       </c>
@@ -21902,7 +21903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2471844</v>
       </c>
@@ -22039,7 +22040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2463162</v>
       </c>
@@ -22176,7 +22177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2478675</v>
       </c>
@@ -22313,7 +22314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2486689</v>
       </c>
@@ -22450,7 +22451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2378940</v>
       </c>
@@ -22587,7 +22588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" t="e">
         <v>#N/A</v>
       </c>
@@ -22724,7 +22725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2462249</v>
       </c>
@@ -22861,7 +22862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" t="e">
         <v>#N/A</v>
       </c>
@@ -22998,7 +22999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2477126</v>
       </c>
@@ -23135,7 +23136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2474447</v>
       </c>
@@ -23272,7 +23273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2448118</v>
       </c>
@@ -23409,7 +23410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2383406</v>
       </c>
@@ -23546,7 +23547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2461288</v>
       </c>
@@ -23683,7 +23684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2363900</v>
       </c>
@@ -23820,7 +23821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2460816</v>
       </c>
@@ -23957,7 +23958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2465376</v>
       </c>
@@ -24094,7 +24095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <v>#N/A</v>
       </c>
@@ -24231,7 +24232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2468164</v>
       </c>
@@ -24368,7 +24369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2445567</v>
       </c>
@@ -24505,7 +24506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2448317</v>
       </c>
@@ -24642,7 +24643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <v>#N/A</v>
       </c>
@@ -24779,7 +24780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2387856</v>
       </c>
@@ -24916,7 +24917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2467768</v>
       </c>
@@ -25053,7 +25054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2462258</v>
       </c>
@@ -25190,7 +25191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2448530</v>
       </c>
@@ -25327,7 +25328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <v>#N/A</v>
       </c>
@@ -25464,7 +25465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2473484</v>
       </c>
@@ -25601,7 +25602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2466089</v>
       </c>
@@ -25738,7 +25739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2473489</v>
       </c>
@@ -25875,7 +25876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2448578</v>
       </c>
@@ -26012,7 +26013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2488564</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <v>#N/A</v>
       </c>
@@ -26286,7 +26287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2470614</v>
       </c>
@@ -26423,7 +26424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2441576</v>
       </c>
@@ -26560,7 +26561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2460467</v>
       </c>
@@ -26697,7 +26698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2460236</v>
       </c>
@@ -26834,7 +26835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2446915</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2469186</v>
       </c>
@@ -27108,7 +27109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2472033</v>
       </c>
@@ -27245,7 +27246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" t="e">
         <v>#N/A</v>
       </c>
@@ -27382,7 +27383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" t="e">
         <v>#N/A</v>
       </c>
@@ -27519,7 +27520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2467025</v>
       </c>
@@ -27656,7 +27657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2488610</v>
       </c>
@@ -27793,7 +27794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2472458</v>
       </c>
@@ -27930,7 +27931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2461567</v>
       </c>
@@ -28067,7 +28068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2486018</v>
       </c>
@@ -28204,7 +28205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2467819</v>
       </c>
@@ -28341,7 +28342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" t="e">
         <v>#N/A</v>
       </c>
@@ -28478,7 +28479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
         <v>#N/A</v>
       </c>
@@ -28615,7 +28616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2475007</v>
       </c>
@@ -28752,7 +28753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" t="e">
         <v>#N/A</v>
       </c>
@@ -28889,7 +28890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" t="e">
         <v>#N/A</v>
       </c>
@@ -29026,7 +29027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" t="e">
         <v>#N/A</v>
       </c>
@@ -29163,7 +29164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2407419</v>
       </c>
@@ -29300,7 +29301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2473892</v>
       </c>
@@ -29437,7 +29438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" t="e">
         <v>#N/A</v>
       </c>
@@ -29574,7 +29575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2369863</v>
       </c>
@@ -29711,7 +29712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2460524</v>
       </c>
@@ -29848,7 +29849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2462744</v>
       </c>
@@ -29985,7 +29986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" t="e">
         <v>#N/A</v>
       </c>
@@ -30122,7 +30123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2484150</v>
       </c>
@@ -30259,7 +30260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2459974</v>
       </c>
@@ -30396,7 +30397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" t="e">
         <v>#N/A</v>
       </c>
@@ -30533,7 +30534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2486181</v>
       </c>
@@ -30670,7 +30671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2467462</v>
       </c>
@@ -30807,7 +30808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" t="e">
         <v>#N/A</v>
       </c>
@@ -30944,7 +30945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" t="e">
         <v>#N/A</v>
       </c>
@@ -31081,7 +31082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" t="e">
         <v>#N/A</v>
       </c>
@@ -31218,7 +31219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2460194</v>
       </c>
@@ -31355,7 +31356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2471666</v>
       </c>
@@ -31492,7 +31493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2403829</v>
       </c>
@@ -31629,7 +31630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2473190</v>
       </c>
@@ -31766,7 +31767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" t="e">
         <v>#N/A</v>
       </c>
@@ -31903,7 +31904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2476786</v>
       </c>
@@ -32040,7 +32041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2475501</v>
       </c>
@@ -32177,7 +32178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2468369</v>
       </c>
@@ -32314,7 +32315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2468597</v>
       </c>
@@ -32451,7 +32452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2458180</v>
       </c>
@@ -32588,7 +32589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2465549</v>
       </c>
@@ -32725,7 +32726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" t="e">
         <v>#N/A</v>
       </c>
@@ -32862,7 +32863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" t="e">
         <v>#N/A</v>
       </c>
@@ -32999,7 +33000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" t="e">
         <v>#N/A</v>
       </c>
@@ -33136,7 +33137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" t="e">
         <v>#N/A</v>
       </c>
@@ -33273,7 +33274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2448032</v>
       </c>
@@ -33410,7 +33411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" t="e">
         <v>#N/A</v>
       </c>
@@ -33547,7 +33548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" t="e">
         <v>#N/A</v>
       </c>
@@ -33684,7 +33685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" t="e">
         <v>#N/A</v>
       </c>
@@ -33821,7 +33822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" t="e">
         <v>#N/A</v>
       </c>
@@ -33958,7 +33959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2473616</v>
       </c>
@@ -34095,7 +34096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2463436</v>
       </c>
@@ -34232,7 +34233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2466812</v>
       </c>
@@ -34369,7 +34370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2486240</v>
       </c>
@@ -34506,8 +34507,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:46" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C239" s="25" t="s">
         <v>36</v>
       </c>
@@ -34678,7 +34679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C240" s="30" t="s">
         <v>37</v>
       </c>
@@ -34851,7 +34852,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="241" spans="3:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C241" s="33"/>
       <c r="D241" s="34">
         <v>1</v>
@@ -34982,8 +34983,8 @@
         <v>0.63135593220338981</v>
       </c>
     </row>
-    <row r="242" spans="3:46" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="3:46" x14ac:dyDescent="0.25">
       <c r="AS243">
         <v>31</v>
       </c>
@@ -34991,7 +34992,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="244" spans="3:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:46" x14ac:dyDescent="0.25">
       <c r="AS244">
         <f>AS243/(AS243+AT243)</f>
         <v>0.21830985915492956</v>
@@ -35062,12 +35063,12 @@
       <selection activeCell="B60" sqref="B60:B237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35198,7 +35199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2470463</v>
       </c>
@@ -35326,7 +35327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460178</v>
       </c>
@@ -35454,7 +35455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2449284</v>
       </c>
@@ -35582,7 +35583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <v>#N/A</v>
       </c>
@@ -35710,7 +35711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2473919</v>
       </c>
@@ -35838,7 +35839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2463987</v>
       </c>
@@ -35966,7 +35967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2575386</v>
       </c>
@@ -36094,7 +36095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <v>#N/A</v>
       </c>
@@ -36222,7 +36223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2448095</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2474652</v>
       </c>
@@ -36478,7 +36479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2468230</v>
       </c>
@@ -36606,7 +36607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2472539</v>
       </c>
@@ -36734,7 +36735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2469215</v>
       </c>
@@ -36862,7 +36863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2461897</v>
       </c>
@@ -36990,7 +36991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <v>#N/A</v>
       </c>
@@ -37118,7 +37119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2441251</v>
       </c>
@@ -37246,7 +37247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2391565</v>
       </c>
@@ -37374,7 +37375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2423048</v>
       </c>
@@ -37502,7 +37503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <v>#N/A</v>
       </c>
@@ -37630,7 +37631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <v>#N/A</v>
       </c>
@@ -37758,7 +37759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <v>#N/A</v>
       </c>
@@ -37886,7 +37887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2463439</v>
       </c>
@@ -38014,7 +38015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2460367</v>
       </c>
@@ -38142,7 +38143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <v>#N/A</v>
       </c>
@@ -38270,7 +38271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2471988</v>
       </c>
@@ -38398,7 +38399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2470025</v>
       </c>
@@ -38526,7 +38527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <v>#N/A</v>
       </c>
@@ -38654,7 +38655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2470432</v>
       </c>
@@ -38782,7 +38783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2457955</v>
       </c>
@@ -38910,7 +38911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2402647</v>
       </c>
@@ -39038,7 +39039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2368055</v>
       </c>
@@ -39166,7 +39167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2460514</v>
       </c>
@@ -39294,7 +39295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <v>#N/A</v>
       </c>
@@ -39422,7 +39423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>2474960</v>
       </c>
@@ -39551,7 +39552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2475836</v>
       </c>
@@ -39679,7 +39680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2463394</v>
       </c>
@@ -39807,7 +39808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -39935,7 +39936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <v>#N/A</v>
       </c>
@@ -40063,7 +40064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2469868</v>
       </c>
@@ -40191,7 +40192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2459364</v>
       </c>
@@ -40319,7 +40320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2448788</v>
       </c>
@@ -40447,7 +40448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2569490</v>
       </c>
@@ -40575,7 +40576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2459206</v>
       </c>
@@ -40703,7 +40704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2484562</v>
       </c>
@@ -40831,7 +40832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -40959,7 +40960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2397400</v>
       </c>
@@ -41087,7 +41088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2395330</v>
       </c>
@@ -41215,7 +41216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2460275</v>
       </c>
@@ -41343,7 +41344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <v>#N/A</v>
       </c>
@@ -41471,7 +41472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <v>#N/A</v>
       </c>
@@ -41599,7 +41600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <v>#N/A</v>
       </c>
@@ -41727,7 +41728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2471245</v>
       </c>
@@ -41855,7 +41856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <v>#N/A</v>
       </c>
@@ -41983,7 +41984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -42111,7 +42112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2466477</v>
       </c>
@@ -42239,7 +42240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2462671</v>
       </c>
@@ -42367,7 +42368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2466786</v>
       </c>
@@ -42495,7 +42496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="e">
         <v>#N/A</v>
       </c>
@@ -42624,7 +42625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2459737</v>
       </c>
@@ -42752,7 +42753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -42880,7 +42881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2472296</v>
       </c>
@@ -43008,7 +43009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2470035</v>
       </c>
@@ -43136,7 +43137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <v>#N/A</v>
       </c>
@@ -43264,7 +43265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2449280</v>
       </c>
@@ -43392,7 +43393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2463984</v>
       </c>
@@ -43520,7 +43521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2470058</v>
       </c>
@@ -43648,7 +43649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2471383</v>
       </c>
@@ -43776,7 +43777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2487380</v>
       </c>
@@ -43904,7 +43905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2459587</v>
       </c>
@@ -44032,7 +44033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2460095</v>
       </c>
@@ -44160,7 +44161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2472842</v>
       </c>
@@ -44288,7 +44289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -44416,7 +44417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2459147</v>
       </c>
@@ -44544,7 +44545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2404288</v>
       </c>
@@ -44672,7 +44673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2489791</v>
       </c>
@@ -44800,7 +44801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2472834</v>
       </c>
@@ -44928,7 +44929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <v>#N/A</v>
       </c>
@@ -45056,7 +45057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2445750</v>
       </c>
@@ -45184,7 +45185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2482941</v>
       </c>
@@ -45312,7 +45313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2473029</v>
       </c>
@@ -45440,7 +45441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2475992</v>
       </c>
@@ -45568,7 +45569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2469670</v>
       </c>
@@ -45696,7 +45697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2471982</v>
       </c>
@@ -45824,7 +45825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <v>#N/A</v>
       </c>
@@ -45952,7 +45953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <v>#N/A</v>
       </c>
@@ -46080,7 +46081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2369630</v>
       </c>
@@ -46208,7 +46209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2471344</v>
       </c>
@@ -46336,7 +46337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <v>#N/A</v>
       </c>
@@ -46464,7 +46465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2467283</v>
       </c>
@@ -46592,7 +46593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2464574</v>
       </c>
@@ -46720,7 +46721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2460930</v>
       </c>
@@ -46848,7 +46849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2470406</v>
       </c>
@@ -46976,7 +46977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2381943</v>
       </c>
@@ -47104,7 +47105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2471509</v>
       </c>
@@ -47232,7 +47233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2373597</v>
       </c>
@@ -47360,7 +47361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <v>#N/A</v>
       </c>
@@ -47488,7 +47489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2488077</v>
       </c>
@@ -47616,7 +47617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2446057</v>
       </c>
@@ -47744,7 +47745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <v>#N/A</v>
       </c>
@@ -47872,7 +47873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <v>#N/A</v>
       </c>
@@ -48000,7 +48001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <v>#N/A</v>
       </c>
@@ -48128,7 +48129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2461833</v>
       </c>
@@ -48256,7 +48257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2472752</v>
       </c>
@@ -48384,7 +48385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2389893</v>
       </c>
@@ -48512,7 +48513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2457637</v>
       </c>
@@ -48640,7 +48641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <v>#N/A</v>
       </c>
@@ -48768,7 +48769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <v>#N/A</v>
       </c>
@@ -48896,7 +48897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2477562</v>
       </c>
@@ -49024,7 +49025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2461221</v>
       </c>
@@ -49152,7 +49153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2369348</v>
       </c>
@@ -49280,7 +49281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <v>#N/A</v>
       </c>
@@ -49408,7 +49409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -49536,7 +49537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2448525</v>
       </c>
@@ -49664,7 +49665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2459209</v>
       </c>
@@ -49792,7 +49793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <v>#N/A</v>
       </c>
@@ -49920,7 +49921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -50048,7 +50049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2470786</v>
       </c>
@@ -50176,7 +50177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2471125</v>
       </c>
@@ -50304,7 +50305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2446469</v>
       </c>
@@ -50432,7 +50433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2471349</v>
       </c>
@@ -50560,7 +50561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <v>#N/A</v>
       </c>
@@ -50688,7 +50689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -50816,7 +50817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2446965</v>
       </c>
@@ -50944,7 +50945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2483846</v>
       </c>
@@ -51072,7 +51073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2461838</v>
       </c>
@@ -51200,7 +51201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2370610</v>
       </c>
@@ -51328,7 +51329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2369028</v>
       </c>
@@ -51456,7 +51457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2449040</v>
       </c>
@@ -51584,7 +51585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2468953</v>
       </c>
@@ -51712,7 +51713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -51840,7 +51841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <v>#N/A</v>
       </c>
@@ -51968,7 +51969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <v>#N/A</v>
       </c>
@@ -52096,7 +52097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <v>#N/A</v>
       </c>
@@ -52224,7 +52225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <v>#N/A</v>
       </c>
@@ -52352,7 +52353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2470724</v>
       </c>
@@ -52480,7 +52481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2375249</v>
       </c>
@@ -52608,7 +52609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2482072</v>
       </c>
@@ -52736,7 +52737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2468534</v>
       </c>
@@ -52864,7 +52865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <v>#N/A</v>
       </c>
@@ -52992,7 +52993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2483548</v>
       </c>
@@ -53120,7 +53121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2422069</v>
       </c>
@@ -53248,7 +53249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2470423</v>
       </c>
@@ -53376,7 +53377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2473590</v>
       </c>
@@ -53504,7 +53505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2369932</v>
       </c>
@@ -53632,7 +53633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2471844</v>
       </c>
@@ -53760,7 +53761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2463162</v>
       </c>
@@ -53888,7 +53889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2478675</v>
       </c>
@@ -54016,7 +54017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2486689</v>
       </c>
@@ -54144,7 +54145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2378940</v>
       </c>
@@ -54272,7 +54273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151" t="e">
         <v>#N/A</v>
       </c>
@@ -54400,7 +54401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2462249</v>
       </c>
@@ -54528,7 +54529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153" t="e">
         <v>#N/A</v>
       </c>
@@ -54656,7 +54657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2477126</v>
       </c>
@@ -54784,7 +54785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2474447</v>
       </c>
@@ -54912,7 +54913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2448118</v>
       </c>
@@ -55040,7 +55041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2383406</v>
       </c>
@@ -55168,7 +55169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2461288</v>
       </c>
@@ -55296,7 +55297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2363900</v>
       </c>
@@ -55424,7 +55425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2460816</v>
       </c>
@@ -55552,7 +55553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2465376</v>
       </c>
@@ -55680,7 +55681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <v>#N/A</v>
       </c>
@@ -55808,7 +55809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2468164</v>
       </c>
@@ -55936,7 +55937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2445567</v>
       </c>
@@ -56064,7 +56065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2448317</v>
       </c>
@@ -56192,7 +56193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <v>#N/A</v>
       </c>
@@ -56320,7 +56321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2387856</v>
       </c>
@@ -56448,7 +56449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2467768</v>
       </c>
@@ -56576,7 +56577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2462258</v>
       </c>
@@ -56704,7 +56705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2448530</v>
       </c>
@@ -56832,7 +56833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <v>#N/A</v>
       </c>
@@ -56960,7 +56961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2473484</v>
       </c>
@@ -57088,7 +57089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2466089</v>
       </c>
@@ -57216,7 +57217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2473489</v>
       </c>
@@ -57344,7 +57345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2448578</v>
       </c>
@@ -57472,7 +57473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2488564</v>
       </c>
@@ -57600,7 +57601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <v>#N/A</v>
       </c>
@@ -57728,7 +57729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2470614</v>
       </c>
@@ -57856,7 +57857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2441576</v>
       </c>
@@ -57984,7 +57985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2460467</v>
       </c>
@@ -58112,7 +58113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2460236</v>
       </c>
@@ -58240,7 +58241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2446915</v>
       </c>
@@ -58368,7 +58369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2469186</v>
       </c>
@@ -58496,7 +58497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2472033</v>
       </c>
@@ -58624,7 +58625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A185" t="e">
         <v>#N/A</v>
       </c>
@@ -58752,7 +58753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A186" t="e">
         <v>#N/A</v>
       </c>
@@ -58880,7 +58881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2467025</v>
       </c>
@@ -59008,7 +59009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2488610</v>
       </c>
@@ -59136,7 +59137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2472458</v>
       </c>
@@ -59264,7 +59265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2461567</v>
       </c>
@@ -59392,7 +59393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2486018</v>
       </c>
@@ -59520,7 +59521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2467819</v>
       </c>
@@ -59648,7 +59649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A193" t="e">
         <v>#N/A</v>
       </c>
@@ -59776,7 +59777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
         <v>#N/A</v>
       </c>
@@ -59904,7 +59905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2475007</v>
       </c>
@@ -60032,7 +60033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A196" t="e">
         <v>#N/A</v>
       </c>
@@ -60160,7 +60161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A197" t="e">
         <v>#N/A</v>
       </c>
@@ -60288,7 +60289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A198" t="e">
         <v>#N/A</v>
       </c>
@@ -60416,7 +60417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2407419</v>
       </c>
@@ -60544,7 +60545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2473892</v>
       </c>
@@ -60672,7 +60673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A201" t="e">
         <v>#N/A</v>
       </c>
@@ -60800,7 +60801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2369863</v>
       </c>
@@ -60928,7 +60929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2460524</v>
       </c>
@@ -61056,7 +61057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2462744</v>
       </c>
@@ -61184,7 +61185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A205" t="e">
         <v>#N/A</v>
       </c>
@@ -61312,7 +61313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2484150</v>
       </c>
@@ -61440,7 +61441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2459974</v>
       </c>
@@ -61568,7 +61569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A208" t="e">
         <v>#N/A</v>
       </c>
@@ -61696,7 +61697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2486181</v>
       </c>
@@ -61824,7 +61825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2467462</v>
       </c>
@@ -61952,7 +61953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A211" t="e">
         <v>#N/A</v>
       </c>
@@ -62080,7 +62081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A212" t="e">
         <v>#N/A</v>
       </c>
@@ -62208,7 +62209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A213" t="e">
         <v>#N/A</v>
       </c>
@@ -62336,7 +62337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2460194</v>
       </c>
@@ -62464,7 +62465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2471666</v>
       </c>
@@ -62592,7 +62593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2403829</v>
       </c>
@@ -62720,7 +62721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2473190</v>
       </c>
@@ -62848,7 +62849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A218" t="e">
         <v>#N/A</v>
       </c>
@@ -62976,7 +62977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2476786</v>
       </c>
@@ -63104,7 +63105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2475501</v>
       </c>
@@ -63232,7 +63233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2468369</v>
       </c>
@@ -63360,7 +63361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2468597</v>
       </c>
@@ -63488,7 +63489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2458180</v>
       </c>
@@ -63616,7 +63617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2465549</v>
       </c>
@@ -63744,7 +63745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A225" t="e">
         <v>#N/A</v>
       </c>
@@ -63872,7 +63873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A226" t="e">
         <v>#N/A</v>
       </c>
@@ -64000,7 +64001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A227" t="e">
         <v>#N/A</v>
       </c>
@@ -64128,7 +64129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A228" t="e">
         <v>#N/A</v>
       </c>
@@ -64256,7 +64257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2448032</v>
       </c>
@@ -64384,7 +64385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A230" t="e">
         <v>#N/A</v>
       </c>
@@ -64512,7 +64513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A231" t="e">
         <v>#N/A</v>
       </c>
@@ -64640,7 +64641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A232" t="e">
         <v>#N/A</v>
       </c>
@@ -64768,7 +64769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A233" t="e">
         <v>#N/A</v>
       </c>
@@ -64896,7 +64897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2473616</v>
       </c>
@@ -65024,7 +65025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2463436</v>
       </c>
@@ -65152,7 +65153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2466812</v>
       </c>
@@ -65280,7 +65281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2486240</v>
       </c>
@@ -65408,8 +65409,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C239" s="39" t="s">
         <v>18</v>
       </c>
@@ -65534,7 +65535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C240" s="42" t="s">
         <v>38</v>
       </c>
@@ -65659,7 +65660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="3:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C241" s="45" t="s">
         <v>4</v>
       </c>
@@ -65824,7 +65825,7 @@
         <v>0.33050847457627119</v>
       </c>
     </row>
-    <row r="242" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C242" s="47" t="s">
         <v>7</v>
       </c>
@@ -65989,7 +65990,7 @@
         <v>0.43220338983050849</v>
       </c>
     </row>
-    <row r="243" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C243" s="47" t="s">
         <v>5</v>
       </c>
@@ -66154,7 +66155,7 @@
         <v>7.6271186440677971E-2</v>
       </c>
     </row>
-    <row r="244" spans="3:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C244" s="49" t="s">
         <v>6</v>
       </c>
@@ -66319,7 +66320,7 @@
         <v>0.16101694915254236</v>
       </c>
     </row>
-    <row r="245" spans="3:43" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="3:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66333,9 +66334,9 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -66343,7 +66344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -66351,7 +66352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -66359,7 +66360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -66367,7 +66368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -66375,7 +66376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -66383,7 +66384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -66391,7 +66392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -66399,7 +66400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -66407,7 +66408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -66415,7 +66416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -66423,7 +66424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -66431,7 +66432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -66439,7 +66440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -66447,7 +66448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -66455,7 +66456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -66463,7 +66464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -66471,7 +66472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -66479,7 +66480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -66487,7 +66488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -66495,7 +66496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -66503,7 +66504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -66511,7 +66512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -66519,7 +66520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -66527,7 +66528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -66535,7 +66536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -66543,7 +66544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -66551,7 +66552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -66559,7 +66560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -66567,7 +66568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -66575,7 +66576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -66583,7 +66584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -66591,7 +66592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -66599,7 +66600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -66607,7 +66608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -66615,7 +66616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -66623,7 +66624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -66631,7 +66632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -66639,7 +66640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -66647,7 +66648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -66655,7 +66656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
